--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -19,6 +19,8 @@
     <sheet name="bgm_list" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="data_list" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="texture_list" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="font_list" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="textasset_list" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="220">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -197,13 +199,37 @@
     <t xml:space="preserve">&lt;texture&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">テクスチャープレハブ作成。</t>
+    <t xml:space="preserve">テクスチャープレハブ作成</t>
   </si>
   <si>
     <t xml:space="preserve">Editor/data/create_from_excel_texture.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">texture_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;font&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォントプレハブ作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_font.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;textasset&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキストアセット作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_textasset.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textasset_list</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;data&gt;</t>
@@ -522,7 +548,7 @@
     <t xml:space="preserve">ASSETBUNDLE_PREFAB</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/Resources/Test12/assetbundle_cube</t>
+    <t xml:space="preserve">Test12/assetbundle_cube</t>
   </si>
   <si>
     <t xml:space="preserve">アセットバンドル化するデータ</t>
@@ -544,7 +570,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Editor/Resources/Test12</t>
+      <t xml:space="preserve">Test12</t>
     </r>
     <r>
       <rPr>
@@ -570,7 +596,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Editor/Resources/Test12</t>
+      <t xml:space="preserve">Test12</t>
     </r>
     <r>
       <rPr>
@@ -747,6 +773,78 @@
   </si>
   <si>
     <t xml:space="preserve">TEST15_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">font_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FontType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThirdParty/Open/M+ FONTS/Font/mplus-1p-medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textasset_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textasset_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textasset_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sll_PublicKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSLPUBLICKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ssl_publickey.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PublicKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST07_PUBLIC_KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/public_key.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrivateKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST07_PRIVATE_KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/private_key.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data_Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST12_DATA_DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data_Release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST12_DATA_RELEASE</t>
   </si>
 </sst>
 </file>
@@ -1194,11 +1292,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="D12 D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1223,8 +1321,8 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1245,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1277,17 +1375,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,19 +1401,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,19 +1421,19 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,19 +1441,19 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1379,13 +1477,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1395,13 +1493,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1411,13 +1509,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1427,13 +1525,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1443,13 +1541,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1459,13 +1557,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1475,13 +1573,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1491,13 +1589,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1546,8 +1644,8 @@
   </sheetPr>
   <dimension ref="C6:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="1" sqref="D12 H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,22 +1707,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,10 +1739,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1656,13 +1754,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1682,20 +1780,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,20 +1801,20 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,20 +1822,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,20 +1843,20 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1766,20 +1864,20 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,24 +1885,458 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:J14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:J18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1824,10 +2356,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L28"/>
+  <dimension ref="C6:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="1" sqref="D12 K36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2119,12 +2651,22 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -2134,54 +2676,52 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2191,19 +2731,19 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2211,41 +2751,33 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="3"/>
-      <c r="D25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -2254,26 +2786,68 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3"/>
+      <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2295,8 +2869,8 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="1" sqref="D12 M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,31 +2929,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -2393,87 +2967,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,43 +3055,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,85 +3099,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,43 +3185,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,8 +3247,8 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D12 F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,31 +3307,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -2771,87 +3345,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,43 +3433,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,85 +3477,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,43 +3563,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,8 +3625,8 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="D12 E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3097,13 +3671,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,10 +3691,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -3129,13 +3703,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3723,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,13 +3737,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,13 +3751,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,8 +3783,8 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="D12 D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,13 +3829,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,28 +3846,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,13 +3881,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,13 +3895,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,13 +3909,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,8 +3941,8 @@
   </sheetPr>
   <dimension ref="C6:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="D12 D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3415,13 +3989,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +4009,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -3447,13 +4021,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,8 +4053,8 @@
   </sheetPr>
   <dimension ref="C6:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="D12 F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3536,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>0</v>
@@ -3547,25 +4121,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,13 +4154,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3596,13 +4170,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
@@ -3625,22 +4199,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
@@ -3651,22 +4225,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>0.8</v>
@@ -3677,22 +4251,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>0.6</v>
@@ -3703,22 +4277,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0.4</v>
@@ -3747,8 +4321,8 @@
   </sheetPr>
   <dimension ref="C6:AMD14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="1" sqref="D12 G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>0</v>
@@ -3815,25 +4389,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,10 +4425,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3871,13 +4445,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3903,22 +4477,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="220">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -1296,7 +1296,7 @@
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1321,7 +1321,7 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2111,7 +2111,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
@@ -2358,8 +2358,8 @@
   </sheetPr>
   <dimension ref="C6:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2784,7 +2784,9 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2805,7 +2807,9 @@
       <c r="K27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>49</v>
       </c>
@@ -2826,7 +2830,9 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -21,6 +21,7 @@
     <sheet name="texture_list" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="font_list" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="textasset_list" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="video_list" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="232">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -223,13 +224,25 @@
     <t xml:space="preserve">&lt;textasset&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">テキストアセット作成</t>
+    <t xml:space="preserve">テキストアセットプレハブ作成</t>
   </si>
   <si>
     <t xml:space="preserve">Editor/data/create_from_excel_textasset.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">textasset_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;video&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ムービープレハブ作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_video.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video_list</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;data&gt;</t>
@@ -845,6 +858,30 @@
   </si>
   <si>
     <t xml:space="preserve">TEST12_DATA_RELEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movie_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movie_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movie_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MovieType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDEO_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamingAssets/Test22/movie.mp4</t>
   </si>
 </sst>
 </file>
@@ -1292,11 +1329,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1321,7 +1358,7 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1375,17 +1412,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,19 +1438,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,19 +1458,19 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,19 +1478,19 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,13 +1498,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1477,13 +1514,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1493,13 +1530,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1509,13 +1546,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1525,13 +1562,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1541,13 +1578,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1557,13 +1594,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1573,13 +1610,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1589,13 +1626,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1644,7 +1681,7 @@
   </sheetPr>
   <dimension ref="C6:J19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1707,22 +1744,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,10 +1776,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1754,13 +1791,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1780,20 +1817,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,20 +1838,20 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,20 +1859,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,20 +1880,20 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,20 +1901,20 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,20 +1922,20 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +1961,7 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1987,22 +2024,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,10 +2056,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2034,13 +2071,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2060,20 +2097,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,8 +2136,8 @@
   </sheetPr>
   <dimension ref="C6:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2162,22 +2199,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,10 +2231,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2209,13 +2246,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2235,20 +2272,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,20 +2293,20 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,20 +2314,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,20 +2335,20 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,24 +2356,199 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:J14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2356,10 +2568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L30"/>
+  <dimension ref="C6:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,34 +2906,30 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2731,7 +2939,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>54</v>
@@ -2743,117 +2951,132 @@
         <v>56</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2875,7 +3098,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -2935,31 +3158,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -2973,87 +3196,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,43 +3284,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,85 +3328,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,43 +3414,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3476,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3313,31 +3536,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -3351,87 +3574,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3439,43 +3662,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,85 +3706,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,43 +3792,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,7 +3854,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3677,13 +3900,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,10 +3920,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -3709,13 +3932,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,13 +3952,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,13 +3966,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,13 +3980,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,7 +4012,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3835,13 +4058,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,28 +4075,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,13 +4110,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,13 +4124,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,13 +4138,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,7 +4170,7 @@
   </sheetPr>
   <dimension ref="C6:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3995,13 +4218,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,10 +4238,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -4027,13 +4250,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,7 +4282,7 @@
   </sheetPr>
   <dimension ref="C6:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -4116,7 +4339,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>0</v>
@@ -4127,25 +4350,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,13 +4383,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4176,13 +4399,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
@@ -4205,22 +4428,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
@@ -4231,22 +4454,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>0.8</v>
@@ -4257,22 +4480,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>0.6</v>
@@ -4283,22 +4506,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="J16" s="7" t="n">
         <v>0.4</v>
@@ -4327,7 +4550,7 @@
   </sheetPr>
   <dimension ref="C6:AMD14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4384,7 +4607,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>0</v>
@@ -4395,25 +4618,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +4654,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4451,13 +4674,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -4483,22 +4706,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="232">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -1333,7 +1333,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2571,7 +2571,7 @@
   <dimension ref="C6:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3055,7 +3055,9 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="7" t="s">
         <v>53</v>
       </c>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">VIDEO_01</t>
   </si>
   <si>
-    <t xml:space="preserve">StreamingAssets/Test22/movie.mp4</t>
+    <t xml:space="preserve">StreamingAssets/Test22/video.mp4</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.63671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2395,8 +2395,8 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2570,7 +2570,7 @@
   </sheetPr>
   <dimension ref="C6:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -221,6 +221,42 @@
     <t xml:space="preserve">font_list</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;video&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ムービープレハブ作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_video.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;data&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;debug&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用しない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_data_debug.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;release&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_data_release.json</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;textasset&gt;</t>
   </si>
   <si>
@@ -231,42 +267,6 @@
   </si>
   <si>
     <t xml:space="preserve">textasset_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;video&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ムービープレハブ作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_video.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;data&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;debug&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用しない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_data_debug.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;release&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_data_release.json</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dummy&gt;</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">TEST12_DATA_RELEASE</t>
   </si>
   <si>
-    <t xml:space="preserve">movie_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movie_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">movie_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game.Movie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MovieType</t>
+    <t xml:space="preserve">video_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game.Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VideoType</t>
   </si>
   <si>
     <t xml:space="preserve">Video_01</t>
@@ -1333,7 +1333,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1359,7 +1359,7 @@
   <dimension ref="C6:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2348,7 +2348,7 @@
         <v>221</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,7 +2369,7 @@
         <v>223</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,8 +2395,8 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2568,10 +2568,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L31"/>
+  <dimension ref="C6:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2675,25 +2675,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
@@ -2702,52 +2690,54 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -2757,14 +2747,14 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>27</v>
@@ -2774,36 +2764,34 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
@@ -2812,14 +2800,14 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>33</v>
@@ -2831,33 +2819,35 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2867,17 +2857,17 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2888,17 +2878,17 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2907,17 +2897,17 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="3"/>
       <c r="D22" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -2929,7 +2919,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2939,19 +2929,19 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -2962,19 +2952,19 @@
         <v>14</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -2992,21 +2982,21 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3014,21 +3004,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="3"/>
-      <c r="D28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3036,49 +3016,102 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,14 +14,13 @@
     <sheet name="test_json_2" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="test_enum_1" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="test_enum_2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="se_header" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="se_list" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="bgm_list" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="data_list" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="texture_list" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="font_list" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="textasset_list" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="video_list" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="bgm_list" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="data_list" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="texture_list" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="font_list" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="textasset_list" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="prefab_list" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="274">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -78,21 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;json&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_json.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_json_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_json_2</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;enum&gt;</t>
@@ -108,7 +92,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Editor/data/create_from_excel_enum</t>
+      <t xml:space="preserve">TestScript/Common/create_from_excel_enum</t>
     </r>
     <r>
       <rPr>
@@ -127,7 +111,19 @@
     <t xml:space="preserve">test_enum_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ＢＧＭ用ENUM作成</t>
+    <t xml:space="preserve">&lt;json&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_json.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_json_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_json_2</t>
   </si>
   <si>
     <r>
@@ -137,7 +133,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Editor/data/create_from_excel_bgm</t>
+      <t xml:space="preserve">TestScript/Common/create_from_excel_bgm</t>
     </r>
     <r>
       <rPr>
@@ -162,9 +158,6 @@
     <t xml:space="preserve">Editor/data/create_from_excel_bgm.prefab</t>
   </si>
   <si>
-    <t xml:space="preserve">ＳＥ用ENUM作成</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -172,7 +165,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Editor/data/create_from_excel_</t>
+      <t xml:space="preserve">TestScript/Common/create_from_excel_</t>
     </r>
     <r>
       <rPr>
@@ -185,9 +178,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">se_header</t>
-  </si>
-  <si>
     <t xml:space="preserve">se_list</t>
   </si>
   <si>
@@ -197,6 +187,12 @@
     <t xml:space="preserve">Editor/data/create_from_excel_se.prefab</t>
   </si>
   <si>
+    <t xml:space="preserve">TestScript/Common/create_from_excel_texture.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texture_list</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;texture&gt;</t>
   </si>
   <si>
@@ -206,7 +202,27 @@
     <t xml:space="preserve">Editor/data/create_from_excel_texture.prefab</t>
   </si>
   <si>
-    <t xml:space="preserve">texture_list</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">TestScript/Common/create_from_excel_font</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.cs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">font_list</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;font&gt;</t>
@@ -218,19 +234,51 @@
     <t xml:space="preserve">Editor/data/create_from_excel_font.prefab</t>
   </si>
   <si>
-    <t xml:space="preserve">font_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;video&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ムービープレハブ作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_video.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video_list</t>
+    <t xml:space="preserve">TestScript/Common/create_from_excel_textasset.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textasset_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;textasset&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキストアセットプレハブ作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/create_from_excel_textasset.prefab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">TestScript/Common/create_from_excel_prefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.cs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;prefab&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プレハブリスト作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources/create_from_excel_prefab.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;data&gt;</t>
@@ -242,7 +290,7 @@
     <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用しない</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_data_debug.json</t>
+    <t xml:space="preserve">Editor/Resources/create_from_excel_data_debug.json</t>
   </si>
   <si>
     <t xml:space="preserve">data_list</t>
@@ -254,19 +302,7 @@
     <t xml:space="preserve">データ用ＪＳＯＮ作成、アセットバンドルを使用する</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_data_release.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;textasset&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストアセットプレハブ作成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_textasset.prefab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textasset_list</t>
+    <t xml:space="preserve">Resources/create_from_excel_data_release.json</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;dummy&gt;</t>
@@ -383,7 +419,7 @@
     <t xml:space="preserve">&lt;namespace&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Game.Item</t>
+    <t xml:space="preserve">TestScript.Common</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;enumname&gt;</t>
@@ -425,7 +461,19 @@
     <t xml:space="preserve">AddType3</t>
   </si>
   <si>
-    <t xml:space="preserve">Game.Se</t>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio_volume</t>
   </si>
   <si>
     <t xml:space="preserve">SeType</t>
@@ -434,24 +482,6 @@
     <t xml:space="preserve">自動生成。</t>
   </si>
   <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se1</t>
   </si>
   <si>
@@ -492,9 +522,6 @@
   </si>
   <si>
     <t xml:space="preserve">SE04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game.Bgm</t>
   </si>
   <si>
     <t xml:space="preserve">BgmType</t>
@@ -737,40 +764,7 @@
     <t xml:space="preserve">texture_assetspath</t>
   </si>
   <si>
-    <t xml:space="preserve">Ui_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/ui_button.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON_ACTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/ui_button_active.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Slider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_SLIDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/ui_slider.png</t>
+    <t xml:space="preserve">TextureType</t>
   </si>
   <si>
     <t xml:space="preserve">Test10_Texture</t>
@@ -788,6 +782,147 @@
     <t xml:space="preserve">TEST15_TEXTURE</t>
   </si>
   <si>
+    <t xml:space="preserve">Ui_Button_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_on.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_down.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_lock.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_active_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_active_on.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_active_down.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_button_active_lock.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_checkbutton_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_checkbutton_on.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_checkbutton_lock.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Check_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_checkbutton_check_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Check_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_checkbutton_check_lock.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Bg_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_BG_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_slider_bg_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Bg_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_BG_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_slider_bg_lock.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Value_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_VALUE_NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_slider_value_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Value_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_VALUE_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/ui_slider_value_lock.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">font_command</t>
   </si>
   <si>
@@ -797,9 +932,6 @@
     <t xml:space="preserve">font_assetspath</t>
   </si>
   <si>
-    <t xml:space="preserve">Game.Font</t>
-  </si>
-  <si>
     <t xml:space="preserve">FontType</t>
   </si>
   <si>
@@ -821,7 +953,10 @@
     <t xml:space="preserve">textasset_assetspath</t>
   </si>
   <si>
-    <t xml:space="preserve">Sll_PublicKey</t>
+    <t xml:space="preserve">TextAssetType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssl_PublicKey</t>
   </si>
   <si>
     <t xml:space="preserve">SSLPUBLICKEY</t>
@@ -830,7 +965,7 @@
     <t xml:space="preserve">Editor/data/ssl_publickey.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">PublicKey</t>
+    <t xml:space="preserve">Test07_PublicKey</t>
   </si>
   <si>
     <t xml:space="preserve">TEST07_PUBLIC_KEY</t>
@@ -839,7 +974,7 @@
     <t xml:space="preserve">Editor/data/public_key.json</t>
   </si>
   <si>
-    <t xml:space="preserve">PrivateKey</t>
+    <t xml:space="preserve">Test07_PrivateKey</t>
   </si>
   <si>
     <t xml:space="preserve">TEST07_PRIVATE_KEY</t>
@@ -848,40 +983,64 @@
     <t xml:space="preserve">Editor/data/private_key.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Data_Debug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST12_DATA_DEBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data_Release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST12_DATA_RELEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game.Video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VideoType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StreamingAssets/Test22/video.mp4</t>
+    <t xml:space="preserve">prefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrefabType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextureList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTURELIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextAssetList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTASSETLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FontList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONTLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test10_Cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST10_CUBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/cube.prefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test16_Cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST16_CUBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test18_Cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST18_CUBE</t>
   </si>
 </sst>
 </file>
@@ -891,7 +1050,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -982,6 +1141,13 @@
       <color rgb="FF000000"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1177,7 +1343,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1214,6 +1380,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1222,15 +1392,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1329,11 +1503,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1356,23 +1530,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:I24"/>
+  <dimension ref="C6:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="62.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,9 +1555,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
@@ -1398,12 +1578,15 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1412,17 +1595,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>144</v>
+        <v>179</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,238 +1620,535 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/texture.png"/>
-    <hyperlink ref="F20" r:id="rId2" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/text.txt"/>
-    <hyperlink ref="F21" r:id="rId3" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/binary.dat"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1679,10 +2164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J19"/>
+  <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,22 +2229,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,10 +2261,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1791,13 +2276,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1817,129 +2302,24 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1959,10 +2339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J14"/>
+  <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1970,10 +2350,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
@@ -1984,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2024,22 +2404,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,10 +2436,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2071,13 +2451,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2097,24 +2477,66 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2134,22 +2556,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J18"/>
+  <dimension ref="C6:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="35.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
   </cols>
@@ -2158,8 +2580,8 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2199,22 +2621,22 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2246,13 +2668,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2272,20 +2694,20 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,20 +2715,20 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,20 +2736,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,20 +2757,20 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,199 +2778,87 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C6:J14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2568,20 +2878,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:L34"/>
+  <dimension ref="C6:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="62.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="43.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.17"/>
@@ -2696,10 +3006,10 @@
       <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
@@ -2719,10 +3029,10 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="7" t="s">
@@ -2747,17 +3057,17 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2768,17 +3078,17 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2800,21 +3110,19 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
@@ -2823,21 +3131,19 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
@@ -2857,17 +3163,17 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
-        <v>38</v>
+      <c r="F20" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -2878,17 +3184,17 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2896,30 +3202,32 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2929,54 +3237,50 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2986,17 +3290,17 @@
         <v>14</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3014,42 +3318,42 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="H29" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="8" t="s">
         <v>53</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -3057,21 +3361,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="3"/>
-      <c r="D31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3081,37 +3375,163 @@
         <v>14</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3133,7 +3553,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3163,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3193,31 +3613,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -3231,87 +3651,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,43 +3739,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,85 +3783,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,43 +3869,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,8 +3931,8 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3541,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
@@ -3571,31 +3991,31 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -3609,87 +4029,87 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,43 +4117,43 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>99999</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,85 +4161,85 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>999999</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>200</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,43 +4247,43 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>99999999</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7" t="n">
         <v>100</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>3000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,8 +4309,8 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3898,7 +4318,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="10.96"/>
@@ -3908,8 +4328,8 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -3935,13 +4355,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,10 +4375,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -3967,13 +4387,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,13 +4407,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,13 +4421,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,13 +4435,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,8 +4467,8 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4056,7 +4476,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="10.96"/>
@@ -4067,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -4093,13 +4513,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,28 +4530,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,13 +4565,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,13 +4579,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,13 +4593,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,21 +4623,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:G12"/>
+  <dimension ref="C6:AMD17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="8" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="12" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,11 +4649,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
@@ -4245,6 +4673,18 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4253,13 +4693,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,35 +4719,169 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>115</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4315,10 +4901,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:K17"/>
+  <dimension ref="C6:AMD14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4326,7 +4912,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.83"/>
@@ -4341,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4374,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>0</v>
@@ -4385,25 +4971,25 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,35 +5004,45 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
+      <c r="AMA10" s="1"/>
+      <c r="AMB10" s="1"/>
+      <c r="AMC10" s="1"/>
+      <c r="AMD10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="AMA11" s="1"/>
+      <c r="AMB11" s="1"/>
+      <c r="AMC11" s="1"/>
+      <c r="AMD11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6"/>
@@ -4463,22 +5059,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>1</v>
@@ -4486,84 +5082,6 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4583,25 +5101,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:AMD14"/>
+  <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="12" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="62.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="5.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,15 +5125,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="3" t="s">
@@ -4633,18 +5143,12 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4653,25 +5157,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,93 +5177,238 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="AMA10" s="1"/>
-      <c r="AMB10" s="1"/>
-      <c r="AMC10" s="1"/>
-      <c r="AMD10" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="AMA11" s="1"/>
-      <c r="AMB11" s="1"/>
-      <c r="AMC11" s="1"/>
-      <c r="AMD11" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/texture.png"/>
+    <hyperlink ref="F20" r:id="rId2" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/text.txt"/>
+    <hyperlink ref="F21" r:id="rId3" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/binary.dat"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">TextAssetType</t>
   </si>
   <si>
-    <t xml:space="preserve">Ssl_PublicKey</t>
+    <t xml:space="preserve">Certificate</t>
   </si>
   <si>
     <t xml:space="preserve">SSLPUBLICKEY</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ssl_publickey.txt</t>
+    <t xml:space="preserve">Editor/data/certificate.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Test07_PublicKey</t>
@@ -1507,7 +1507,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1532,7 +1532,7 @@
   </sheetPr>
   <dimension ref="C6:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -2341,8 +2341,8 @@
   </sheetPr>
   <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2895,7 +2895,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +3575,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,7 +3953,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="6.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,7 +4321,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4479,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5117,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="5.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="2" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">bgm_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;audio&gt;</t>
+    <t xml:space="preserve">&lt;audio_prefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">ＢＧＭ用プレハブ作成</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">texture_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;texture&gt;</t>
+    <t xml:space="preserve">&lt;texture_prefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">テクスチャープレハブ作成</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">font_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;font&gt;</t>
+    <t xml:space="preserve">&lt;font_prefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">フォントプレハブ作成</t>
@@ -240,7 +240,7 @@
     <t xml:space="preserve">textasset_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;textasset&gt;</t>
+    <t xml:space="preserve">&lt;textasset_prefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">テキストアセットプレハブ作成</t>
@@ -1503,11 +1503,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1532,7 +1532,7 @@
   </sheetPr>
   <dimension ref="C6:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -2166,7 +2166,7 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -2341,7 +2341,7 @@
   </sheetPr>
   <dimension ref="C6:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -2558,7 +2558,7 @@
   </sheetPr>
   <dimension ref="C6:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2880,15 +2880,15 @@
   </sheetPr>
   <dimension ref="C6:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="43.18"/>
@@ -3553,7 +3553,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3931,7 +3931,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4309,7 +4309,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4467,7 +4467,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -4625,7 +4625,7 @@
   </sheetPr>
   <dimension ref="C6:AMD17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4903,7 +4903,7 @@
   </sheetPr>
   <dimension ref="C6:AMD14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -5103,7 +5103,7 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,11 +16,11 @@
     <sheet name="test_enum_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="se_list" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="bgm_list" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="data_list" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="texture_list" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="font_list" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="textasset_list" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="prefab_list" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="data" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="textureprefab" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="fontprefab" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="textassetprefab" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="prefab" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="272">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">JSON作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_json.json</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_json.json</t>
   </si>
   <si>
     <t xml:space="preserve">test_json_1</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">bgm_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;audio_prefab&gt;</t>
+    <t xml:space="preserve">&lt;audioprefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">ＢＧＭ用プレハブ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_bgm.prefab</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_bgm.prefab</t>
   </si>
   <si>
     <r>
@@ -184,22 +184,22 @@
     <t xml:space="preserve">ＳＥ用プレハブ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_se.prefab</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_se.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">TestScript/Common/create_from_excel_texture.cs</t>
   </si>
   <si>
-    <t xml:space="preserve">texture_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;texture_prefab&gt;</t>
+    <t xml:space="preserve">textureprefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;textureprefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">テクスチャープレハブ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_texture.prefab</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_texture.prefab</t>
   </si>
   <si>
     <r>
@@ -222,31 +222,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">font_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;font_prefab&gt;</t>
+    <t xml:space="preserve">fontprefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;fontprefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">フォントプレハブ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_font.prefab</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_font.prefab</t>
   </si>
   <si>
     <t xml:space="preserve">TestScript/Common/create_from_excel_textasset.cs</t>
   </si>
   <si>
-    <t xml:space="preserve">textasset_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;textasset_prefab&gt;</t>
+    <t xml:space="preserve">textassetprefab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;textassetprefab&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">テキストアセットプレハブ作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_textasset.prefab</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_textasset.prefab</t>
   </si>
   <si>
     <r>
@@ -269,7 +269,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">prefab_list</t>
+    <t xml:space="preserve">prefab</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;prefab&gt;</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">Editor/Resources/create_from_excel_data_debug.json</t>
   </si>
   <si>
-    <t xml:space="preserve">data_list</t>
+    <t xml:space="preserve">data</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;release&gt;</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">ダミーアセットバンドル作成</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/create_from_excel_dummyassetbundle_</t>
+    <t xml:space="preserve">Editor/temp/create_from_excel_dummyassetbundle_</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;standalonewindows&gt;</t>
@@ -464,16 +464,16 @@
     <t xml:space="preserve">float</t>
   </si>
   <si>
-    <t xml:space="preserve">audio_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio_volume</t>
+    <t xml:space="preserve">audioprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audioprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audioprefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audioprefab_volume</t>
   </si>
   <si>
     <t xml:space="preserve">SeType</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">URL_TEXTURE</t>
   </si>
   <si>
-    <t xml:space="preserve">https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/texture.png</t>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/texture.png</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;url_text&gt;</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">URL_TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/text.txt</t>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/text.txt</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;url_binary&gt;</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">URL_BINARY</t>
   </si>
   <si>
-    <t xml:space="preserve">https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/binary.dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texture_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texture_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texture_assetspath</t>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/binary.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_assetspath</t>
   </si>
   <si>
     <t xml:space="preserve">TextureType</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">TEST10_TEXTURE</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/skyimage.jpg</t>
+    <t xml:space="preserve">Editor/texture/skyimage.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Test15_Texture</t>
@@ -782,13 +782,68 @@
     <t xml:space="preserve">TEST15_TEXTURE</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/skyimage.jpg</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Ui_Button_Normal</t>
   </si>
   <si>
     <t xml:space="preserve">UI_BUTTON_NORMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_On</t>
@@ -797,7 +852,33 @@
     <t xml:space="preserve">UI_BUTTON_ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_on.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_on.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Down</t>
@@ -806,7 +887,33 @@
     <t xml:space="preserve">UI_BUTTON_DOWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_down.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_down.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Lock</t>
@@ -815,31 +922,161 @@
     <t xml:space="preserve">UI_BUTTON_LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_lock.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_lock.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Active_Normal</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_active_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Active_On</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_active_on.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_on.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Active_Down</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_active_down.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_down.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Button_Active_Lock</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_button_active_lock.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_lock.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_CheckButton_Normal</t>
@@ -848,7 +1085,33 @@
     <t xml:space="preserve">UI_CHECKBUTTON_NORMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_CheckButton_On</t>
@@ -857,7 +1120,33 @@
     <t xml:space="preserve">UI_CHECKBUTTON_ON</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton_on.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_on.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_CheckButton_Lock</t>
@@ -866,7 +1155,33 @@
     <t xml:space="preserve">UI_CHECKBUTTON_LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton_lock.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_lock.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_CheckButton_Check_Normal</t>
@@ -875,7 +1190,33 @@
     <t xml:space="preserve">UI_CHECKBUTTON_CHECK_NORMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton_check_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_check_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_CheckButton_Check_Lock</t>
@@ -884,7 +1225,33 @@
     <t xml:space="preserve">UI_CHECKBUTTON_CHECK_LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_checkbutton_check_lock.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_check_lock.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Slider_Bg_Normal</t>
@@ -893,7 +1260,33 @@
     <t xml:space="preserve">UI_SLIDER_BG_NORMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_slider_bg_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_bg_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Slider_Bg_Lock</t>
@@ -902,7 +1295,33 @@
     <t xml:space="preserve">UI_SLIDER_BG_LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_slider_bg_lock.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_bg_lock.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Slider_Value_Normal</t>
@@ -911,7 +1330,33 @@
     <t xml:space="preserve">UI_SLIDER_VALUE_NORMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_slider_value_normal.png</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_value_normal.png</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ui_Slider_Value_Lock</t>
@@ -920,16 +1365,42 @@
     <t xml:space="preserve">UI_SLIDER_VALUE_LOCK</t>
   </si>
   <si>
-    <t xml:space="preserve">Editor/data/ui_slider_value_lock.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">font_assetspath</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_value_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_assetspath</t>
   </si>
   <si>
     <t xml:space="preserve">FontType</t>
@@ -944,25 +1415,16 @@
     <t xml:space="preserve">ThirdParty/Open/M+ FONTS/Font/mplus-1p-medium.ttf</t>
   </si>
   <si>
-    <t xml:space="preserve">textasset_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textasset_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textasset_assetspath</t>
+    <t xml:space="preserve">textassetprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textassetprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textassetprefab_assetspath</t>
   </si>
   <si>
     <t xml:space="preserve">TextAssetType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSLPUBLICKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/certificate.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Test07_PublicKey</t>
@@ -1050,7 +1512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -1149,13 +1611,6 @@
       <name val="MS Gothic"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1343,7 +1798,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1401,10 +1856,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1503,11 +1954,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1532,8 +1983,8 @@
   </sheetPr>
   <dimension ref="C6:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1543,8 +1994,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="28.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
@@ -1702,7 +2153,7 @@
         <v>186</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,17 +2200,17 @@
         <v>104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,17 +2221,17 @@
         <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,17 +2242,17 @@
         <v>104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,17 +2263,17 @@
         <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,17 +2293,17 @@
         <v>104</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,17 +2314,17 @@
         <v>104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,17 +2335,17 @@
         <v>104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,17 +2356,17 @@
         <v>104</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,17 +2386,17 @@
         <v>104</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,17 +2407,17 @@
         <v>104</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,17 +2428,17 @@
         <v>104</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,17 +2449,17 @@
         <v>104</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,17 +2470,17 @@
         <v>104</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,17 +2500,17 @@
         <v>104</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,17 +2521,17 @@
         <v>104</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,17 +2542,17 @@
         <v>104</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,17 +2563,17 @@
         <v>104</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,8 +2617,8 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2175,7 +2626,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16.52"/>
@@ -2238,13 +2689,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2730,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2305,17 +2756,17 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,10 +2790,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:J16"/>
+  <dimension ref="C6:J15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2352,7 +2803,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
@@ -2363,7 +2814,7 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="1"/>
@@ -2413,13 +2864,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +2905,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2480,17 +2931,17 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,42 +2952,21 @@
         <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2558,8 +2988,8 @@
   </sheetPr>
   <dimension ref="C6:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2567,11 +2997,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="35.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="2" width="10.96"/>
   </cols>
@@ -2630,13 +3060,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +3101,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2697,14 +3127,14 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>38</v>
@@ -2718,14 +3148,14 @@
         <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>48</v>
@@ -2739,14 +3169,14 @@
         <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>43</v>
@@ -2767,7 +3197,7 @@
         <v>104</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>29</v>
@@ -2781,14 +3211,14 @@
         <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -2802,17 +3232,17 @@
         <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,17 +3253,17 @@
         <v>104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,17 +3274,17 @@
         <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,15 +3310,15 @@
   </sheetPr>
   <dimension ref="C6:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="43.18"/>
@@ -3352,7 +3782,7 @@
       <c r="G30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I30" s="7"/>
@@ -3553,7 +3983,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -3931,7 +4361,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4309,7 +4739,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4467,7 +4897,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -4625,8 +5055,8 @@
   </sheetPr>
   <dimension ref="C6:AMD17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4637,9 +5067,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="12" style="2" width="10.96"/>
   </cols>
@@ -4903,8 +5333,8 @@
   </sheetPr>
   <dimension ref="C6:AMD14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4914,10 +5344,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="12" style="2" width="10.96"/>
   </cols>
@@ -5103,8 +5533,8 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5113,7 +5543,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="62.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="67.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="5.17"/>
@@ -5360,7 +5790,7 @@
       <c r="E20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>174</v>
       </c>
       <c r="G20" s="7"/>
@@ -5405,9 +5835,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/texture.png"/>
-    <hyperlink ref="F20" r:id="rId2" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/text.txt"/>
-    <hyperlink ref="F21" r:id="rId3" display="https://blueback.ddns.net:8081/project_fee/StreamingAssets/Test04/binary.dat"/>
+    <hyperlink ref="F19" r:id="rId1" display="https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/texture.png"/>
+    <hyperlink ref="F20" r:id="rId2" display="https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/text.txt"/>
+    <hyperlink ref="F21" r:id="rId3" display="https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/binary.dat"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/unity_2019_2/Assets/Editor/data/excel.xlsx
+++ b/unity_2019_2/Assets/Editor/data/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="275">
   <si>
     <t xml:space="preserve">[end]</t>
   </si>
@@ -527,952 +527,961 @@
     <t xml:space="preserve">BgmType</t>
   </si>
   <si>
+    <t xml:space="preserve">Bgm01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThirdParty/Open/魔王魂/bgm_maoudamashii_piano08.mp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bgm02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_command</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_path</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">data_assetbundle_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_prefab&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSETBUNDLE_PREFAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test12/assetbundle_cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アセットバンドル化するデータ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test.assetbundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSETBUNDLE_TEXTURE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Test12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/assetbundle_texture</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;resources_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSETBUNDLE_TEXT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Test12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/assetbundle_text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_PREFAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test12/cube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_TEXTURE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Test12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/texture</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RESOURCES_TEXT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Test12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/text</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test12/texture.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test12/text.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;streamingassets_binary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREAMINGASSETS_BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test12/binary.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_texture&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/texture.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/text.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;url_binary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL_BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/binary.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textureprefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextureType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test10_Texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST10_TEXTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/texture/skyimage.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test15_Texture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST15_TEXTURE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/skyimage.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_NORMAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_ON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_on.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_DOWN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_down.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_BUTTON_LOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Normal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_On</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_on.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Down</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_down.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Button_Active_Lock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_button_active_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_NORMAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_ON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_on.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_LOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Check_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_NORMAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_check_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_CheckButton_Check_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_LOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_checkbutton_check_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Bg_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_BG_NORMAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_bg_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Bg_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_BG_LOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_bg_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Value_Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_VALUE_NORMAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_value_normal.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui_Slider_Value_Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_SLIDER_VALUE_LOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Editor/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">texture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ui_slider_value_lock.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fontprefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FontType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThirdParty/Open/M+ FONTS/Font/mplus-1p-medium.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textassetprefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textassetprefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textassetprefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextAssetType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test07_PublicKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST07_PUBLIC_KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/public_key.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test07_PrivateKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST07_PRIVATE_KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor/data/private_key.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefab_assetspath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrefabType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextureList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTURELIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextAssetList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXTASSETLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FontList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONTLIST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bgm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGM01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThirdParty/Open/魔王魂/bgm_maoudamashii_piano08.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_command</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_path</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">data_assetbundle_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;resources_prefab&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSETBUNDLE_PREFAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test12/assetbundle_cube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アセットバンドル化するデータ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test.assetbundle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;resources_texture&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSETBUNDLE_TEXTURE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Test12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/assetbundle_texture</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;resources_text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSETBUNDLE_TEXT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Test12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/assetbundle_text</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RESOURCES_PREFAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test12/cube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESOURCES_TEXTURE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Test12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/texture</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RESOURCES_TEXT</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Test12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/text</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;streamingassets_texture&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREAMINGASSETS_TEXTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test12/texture.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;streamingassets_text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREAMINGASSETS_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test12/text.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;streamingassets_binary&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREAMINGASSETS_BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test12/binary.dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;url_texture&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL_TEXTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/texture.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;url_text&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL_TEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/text.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;url_binary&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL_BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blueback.myqnapcloud.com:8081/project_fee/StreamingAssets/Test04/binary.dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textureprefab_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textureprefab_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textureprefab_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TextureType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test10_Texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST10_TEXTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/texture/skyimage.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test15_Texture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST15_TEXTURE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/skyimage.jpg</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON_NORMAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON_ON</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_on.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON_DOWN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_down.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_BUTTON_LOCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Active_Normal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_active_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Active_On</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_active_on.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Active_Down</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_active_down.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Button_Active_Lock</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_button_active_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON_NORMAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_checkbutton_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton_On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON_ON</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_checkbutton_on.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton_Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON_LOCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_checkbutton_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton_Check_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_NORMAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_checkbutton_check_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_CheckButton_Check_Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_CHECKBUTTON_CHECK_LOCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_checkbutton_check_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Slider_Bg_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_SLIDER_BG_NORMAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_slider_bg_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Slider_Bg_Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_SLIDER_BG_LOCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_slider_bg_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Slider_Value_Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_SLIDER_VALUE_NORMAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_slider_value_normal.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ui_Slider_Value_Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI_SLIDER_VALUE_LOCK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Editor/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">texture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ui_slider_value_lock.png</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">fontprefab_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fontprefab_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fontprefab_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FontType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FONT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThirdParty/Open/M+ FONTS/Font/mplus-1p-medium.ttf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textassetprefab_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textassetprefab_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">textassetprefab_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TextAssetType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test07_PublicKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST07_PUBLIC_KEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/public_key.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test07_PrivateKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST07_PRIVATE_KEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editor/data/private_key.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefab_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefab_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefab_assetspath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrefabType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TextureList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTURELIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TextAssetList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTASSETLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FontList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FONTLIST</t>
   </si>
   <si>
     <t xml:space="preserve">BGM</t>
@@ -1954,11 +1963,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1983,7 +1992,7 @@
   </sheetPr>
   <dimension ref="C6:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I52" activeCellId="0" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -2055,13 +2064,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,7 +2105,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2122,17 +2131,17 @@
         <v>104</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,17 +2152,17 @@
         <v>104</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,17 +2209,17 @@
         <v>104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,17 +2230,17 @@
         <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2242,17 +2251,17 @@
         <v>104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,17 +2272,17 @@
         <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,17 +2302,17 @@
         <v>104</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,17 +2323,17 @@
         <v>104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,17 +2344,17 @@
         <v>104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,17 +2365,17 @@
         <v>104</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,17 +2395,17 @@
         <v>104</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,17 +2416,17 @@
         <v>104</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,17 +2437,17 @@
         <v>104</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,17 +2458,17 @@
         <v>104</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,17 +2479,17 @@
         <v>104</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,17 +2509,17 @@
         <v>104</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,17 +2530,17 @@
         <v>104</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,17 +2551,17 @@
         <v>104</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,17 +2572,17 @@
         <v>104</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2626,7 @@
   </sheetPr>
   <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2689,13 +2698,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,7 +2739,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2756,17 +2765,17 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,7 +2801,7 @@
   </sheetPr>
   <dimension ref="C6:J15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2864,13 +2873,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2914,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -2931,17 +2940,17 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,17 +2961,17 @@
         <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +2997,7 @@
   </sheetPr>
   <dimension ref="C6:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3060,13 +3069,13 @@
         <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,7 +3110,7 @@
         <v>101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>120</v>
@@ -3127,14 +3136,14 @@
         <v>104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>38</v>
@@ -3148,14 +3157,14 @@
         <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>48</v>
@@ -3169,14 +3178,14 @@
         <v>104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>43</v>
@@ -3190,14 +3199,14 @@
         <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>29</v>
@@ -3211,14 +3220,14 @@
         <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -3232,17 +3241,17 @@
         <v>104</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,17 +3262,17 @@
         <v>104</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,17 +3283,17 @@
         <v>104</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3319,7 @@
   </sheetPr>
   <dimension ref="C6:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -3983,7 +3992,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -4361,7 +4370,7 @@
   </sheetPr>
   <dimension ref="C6:Q14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4739,7 +4748,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4897,7 +4906,7 @@
   </sheetPr>
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -5055,7 +5064,7 @@
   </sheetPr>
   <dimension ref="C6:AMD17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -5331,10 +5340,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C6:AMD14"/>
+  <dimension ref="C6:AMD15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5346,7 +5355,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="44.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="12" style="2" width="10.96"/>
@@ -5512,6 +5521,32 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5533,7 +5568,7 @@
   </sheetPr>
   <dimension ref="C6:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -5587,17 +5622,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,19 +5648,19 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5633,19 +5668,19 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,19 +5688,19 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,13 +5708,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5689,13 +5724,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5705,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -5721,13 +5756,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5737,13 +5772,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5753,13 +5788,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5769,13 +5804,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -5785,13 +5820,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5801,13 +5836,13 @@
         <v>14</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
